--- a/xlsx/nor_oda_health_tenyear.xlsx
+++ b/xlsx/nor_oda_health_tenyear.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2.800593659544531</v>
+        <v>2.80059365954453</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.901208880687088</v>
+        <v>2.900197605600452</v>
       </c>
     </row>
     <row r="10">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3.257322874759207</v>
+        <v>3.256617875026135</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3.036806930463269</v>
+        <v>3.036562936089702</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.912725744877861</v>
+        <v>2.887619522516987</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_health_tenyear.xlsx
+++ b/xlsx/nor_oda_health_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til helse, 2014-2023fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand til helse, 2015-2024fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.914693547941</v>
+        <v>1.836237391751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>2.80059365954453</v>
+        <v>2.876125613739932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.836237391751</v>
+        <v>1.844571235892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>2.876125613739932</v>
+        <v>2.738029354362665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.844571235892</v>
+        <v>2.10696423583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>2.738029354362665</v>
+        <v>2.900197605600452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.10696423583</v>
+        <v>2.17450902819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.900197605600452</v>
+        <v>2.890452893506927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>2.17450902819</v>
+        <v>2.249834447697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>2.890452893506927</v>
+        <v>3.086075401761537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>2.249834447697</v>
+        <v>3.922306630614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>3.086075401761537</v>
+        <v>3.256617875026135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>3.922306630614</v>
+        <v>5.004282562522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>3.256617875026135</v>
+        <v>3.413531178606468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>5.004282562522</v>
+        <v>3.254901312526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>3.413531178606468</v>
+        <v>3.036562936089702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>3.254901312526</v>
+        <v>3.53840778749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>3.036562936089702</v>
+        <v>2.887619522516987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>3.53840778749</v>
+        <v>3.166598258901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.887619522516987</v>
+        <v>3.639807381092455</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_health_tenyear.xlsx
+++ b/xlsx/nor_oda_health_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til helse, 2015-2024fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand til helse, 2015-2024, fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_health_tenyear.xlsx
+++ b/xlsx/nor_oda_health_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til helse, 2015-2024, fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til helse. 2015-2024. Fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
